--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_Islas Diego Ramirez.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Black-browed Albatross_Islas Diego Ramirez.xlsx
@@ -4262,13 +4262,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7343E742-B2E5-4030-AB96-26B826389102}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F84938-9CB2-45B7-A03C-C394CF15CD06}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{293302EC-2B82-44F1-B752-2202FC82AC8C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5B1195F-4598-4CCA-BFED-AEF11DF55F1E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02C1EA9F-A2D0-4A55-95F0-206462363A63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2025A86D-88E5-42CC-ACCB-3173A1E4F9B5}"/>
 </file>